--- a/data/trans_dic/P79$impuestos_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P79$impuestos_2023-Habitat-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.0133762944412388</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.01115250547737365</v>
+        <v>0.01115250547737366</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.01223046707883993</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.005718443758964721</v>
+        <v>0.006237382017915199</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.004682381707019976</v>
+        <v>0.005108884654530178</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.007135071029384276</v>
+        <v>0.006888999731612764</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02926802501314905</v>
+        <v>0.02751528793184308</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.022726053394755</v>
+        <v>0.02311720459098164</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02009062264688103</v>
+        <v>0.02011097616187948</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.009697758155670987</v>
+        <v>0.009697758155670986</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.01457780808768913</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004662755653241849</v>
+        <v>0.00503738839112519</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.008735276042334171</v>
+        <v>0.009243755880590291</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.008381742973423773</v>
+        <v>0.008076891958907085</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01711029236746971</v>
+        <v>0.01727115136335005</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02234365153354058</v>
+        <v>0.02325145275397279</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01690548918670735</v>
+        <v>0.01726343282339698</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006849521777184405</v>
+        <v>0.006175507824923585</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.009803317487594403</v>
+        <v>0.009922018071217616</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01015992244711672</v>
+        <v>0.00988917825458285</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0242494696518284</v>
+        <v>0.02419193066369715</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02592330773326288</v>
+        <v>0.02487292036900406</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02199600956558419</v>
+        <v>0.02226784462988495</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.01834618351176007</v>
+        <v>0.01834618351176006</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.008068130940301227</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01110663226919439</v>
+        <v>0.01113043050371306</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.00449079411711514</v>
+        <v>0.004578753788121205</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.008653401437504461</v>
+        <v>0.008583924445167328</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03043994306105434</v>
+        <v>0.03007108863425043</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01330207764867705</v>
+        <v>0.01305887892774469</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01908397907349512</v>
+        <v>0.01833363583320039</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01029605918281001</v>
+        <v>0.009485435034111383</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.009399396646633739</v>
+        <v>0.00962772815988047</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01053367296108176</v>
+        <v>0.01062617340533114</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01809907695909347</v>
+        <v>0.01829296638874374</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01582886406084231</v>
+        <v>0.01597354638539947</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01601811476967736</v>
+        <v>0.01576333169350707</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3834</v>
+        <v>4182</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3337</v>
+        <v>3641</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9870</v>
+        <v>9530</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19626</v>
+        <v>18450</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16198</v>
+        <v>16477</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>27791</v>
+        <v>27820</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4759</v>
+        <v>5141</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9015</v>
+        <v>9540</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>17204</v>
+        <v>16578</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>17462</v>
+        <v>17627</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>23059</v>
+        <v>23996</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>34700</v>
+        <v>35435</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5266</v>
+        <v>4748</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7608</v>
+        <v>7701</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>15696</v>
+        <v>15278</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18643</v>
+        <v>18599</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>20119</v>
+        <v>19304</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>33982</v>
+        <v>34402</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>10672</v>
+        <v>10695</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4842</v>
+        <v>4937</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>17645</v>
+        <v>17503</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>29250</v>
+        <v>28895</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>14342</v>
+        <v>14080</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>38914</v>
+        <v>37384</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>35221</v>
+        <v>32448</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>33829</v>
+        <v>34651</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>73945</v>
+        <v>74594</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>61914</v>
+        <v>62577</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>56969</v>
+        <v>57490</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>112445</v>
+        <v>110657</v>
       </c>
     </row>
     <row r="24">
